--- a/لیست کل دوره های آموزشی خروجی آقای کریمی 14030225.xlsx
+++ b/لیست کل دوره های آموزشی خروجی آقای کریمی 14030225.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\File\اکسل\صفحه آموزش\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A736B21-180A-4AD3-9A7B-4C698F1831AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78565202-B061-41A4-A344-7CF7AC6188EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pproducts(6) (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'pproducts(6) (2)'!$A$1:$F$234</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'pproducts(6) (2)'!$A$1:$D$234</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="231">
   <si>
     <t>idps</t>
   </si>
@@ -48,9 +48,6 @@
     <t>regular_price</t>
   </si>
   <si>
-    <t>prebuy_price</t>
-  </si>
-  <si>
     <t>مستند جستجوگر</t>
   </si>
   <si>
@@ -733,9 +730,6 @@
   </si>
   <si>
     <t>تعداد دانلود</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -797,28 +791,28 @@
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{56DA2375-ECC9-4E12-8CC4-6DC6E157AFEB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
+    <queryTableFields count="4">
       <queryTableField id="1" name="idps" tableColumnId="1"/>
       <queryTableField id="2" name="name" tableColumnId="2"/>
       <queryTableField id="3" name="regular_price" tableColumnId="3"/>
       <queryTableField id="4" name="spesial_price" tableColumnId="4"/>
-      <queryTableField id="5" name="ticket_price" tableColumnId="5"/>
-      <queryTableField id="6" name="prebuy_price" tableColumnId="6"/>
     </queryTableFields>
+    <queryTableDeletedFields count="2">
+      <deletedField name="ticket_price"/>
+      <deletedField name="prebuy_price"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CB61C1D-6E38-4E48-8C36-B050105C7C9E}" name="pproducts_6___2" displayName="pproducts_6___2" ref="A1:F234" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F234" xr:uid="{9CB61C1D-6E38-4E48-8C36-B050105C7C9E}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CB61C1D-6E38-4E48-8C36-B050105C7C9E}" name="pproducts_6___2" displayName="pproducts_6___2" ref="A1:D234" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D234" xr:uid="{9CB61C1D-6E38-4E48-8C36-B050105C7C9E}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{04BE6AF2-30BC-4D87-8726-C1183E64F3D4}" uniqueName="1" name="idps" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{718E5251-49F6-441C-AB0E-1325629B9081}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{3802F8FC-4479-4198-B1E3-D81456AFF50F}" uniqueName="3" name="regular_price" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{6CDC06DA-0F89-4F96-AA54-474DC873FABF}" uniqueName="4" name="تعداد دانلود" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{58841448-0006-493C-BDA6-5C9129CFD9D1}" uniqueName="5" name="Column1" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{07211462-0540-423E-B116-12A21ED387D0}" uniqueName="6" name="prebuy_price" queryTableFieldId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1087,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD59ECBE-FA49-463C-8265-F5B5812A2070}">
-  <dimension ref="A1:F234"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E231" sqref="E231"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,11 +1093,9 @@
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1114,21 +1106,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>6000</v>
@@ -1136,19 +1122,13 @@
       <c r="D2">
         <v>55</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>288</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>6000</v>
@@ -1156,19 +1136,13 @@
       <c r="D3">
         <v>120</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>6000</v>
@@ -1176,19 +1150,13 @@
       <c r="D4">
         <v>128</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>6000</v>
@@ -1196,19 +1164,13 @@
       <c r="D5">
         <v>159</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>6000</v>
@@ -1216,19 +1178,13 @@
       <c r="D6">
         <v>34</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>6000</v>
@@ -1236,19 +1192,13 @@
       <c r="D7">
         <v>292</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>6000</v>
@@ -1256,19 +1206,13 @@
       <c r="D8">
         <v>127</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>294</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>6000</v>
@@ -1276,19 +1220,13 @@
       <c r="D9">
         <v>108</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>6000</v>
@@ -1296,19 +1234,13 @@
       <c r="D10">
         <v>127</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>296</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>6000</v>
@@ -1316,19 +1248,13 @@
       <c r="D11">
         <v>191</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>6000</v>
@@ -1336,19 +1262,13 @@
       <c r="D12">
         <v>85</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>6000</v>
@@ -1356,19 +1276,13 @@
       <c r="D13">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>299</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>6000</v>
@@ -1376,19 +1290,13 @@
       <c r="D14">
         <v>86</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>5000</v>
@@ -1396,19 +1304,13 @@
       <c r="D15">
         <v>56</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>6000</v>
@@ -1416,19 +1318,13 @@
       <c r="D16">
         <v>57</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>400</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>5000</v>
@@ -1436,19 +1332,13 @@
       <c r="D17">
         <v>116</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>641</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>110000</v>
@@ -1456,19 +1346,13 @@
       <c r="D18">
         <v>459</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>6000</v>
@@ -1476,19 +1360,13 @@
       <c r="D19">
         <v>94</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1027</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>15000</v>
@@ -1496,19 +1374,13 @@
       <c r="D20">
         <v>65</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1104</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>5000</v>
@@ -1516,19 +1388,13 @@
       <c r="D21">
         <v>14</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1170</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>6000</v>
@@ -1536,19 +1402,13 @@
       <c r="D22">
         <v>110</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1264</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>5000</v>
@@ -1556,19 +1416,13 @@
       <c r="D23">
         <v>25</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1265</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>5000</v>
@@ -1576,19 +1430,13 @@
       <c r="D24">
         <v>6</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1266</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>5000</v>
@@ -1596,19 +1444,13 @@
       <c r="D25">
         <v>34</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1267</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>5000</v>
@@ -1616,19 +1458,13 @@
       <c r="D26">
         <v>71</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1270</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>5000</v>
@@ -1636,19 +1472,13 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1298</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>6000</v>
@@ -1656,19 +1486,13 @@
       <c r="D28">
         <v>13</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1299</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>6000</v>
@@ -1676,19 +1500,13 @@
       <c r="D29">
         <v>20</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1300</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>6000</v>
@@ -1696,19 +1514,13 @@
       <c r="D30">
         <v>4</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1301</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>6000</v>
@@ -1716,19 +1528,13 @@
       <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1302</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>6000</v>
@@ -1736,19 +1542,13 @@
       <c r="D32">
         <v>4</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1303</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>6000</v>
@@ -1756,19 +1556,13 @@
       <c r="D33">
         <v>5</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1304</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>10000</v>
@@ -1776,19 +1570,13 @@
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1305</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>200000</v>
@@ -1796,19 +1584,13 @@
       <c r="D35">
         <v>859</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1628</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>6000</v>
@@ -1816,19 +1598,13 @@
       <c r="D36">
         <v>17</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1629</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>6000</v>
@@ -1836,19 +1612,13 @@
       <c r="D37">
         <v>8</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1630</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>6000</v>
@@ -1856,19 +1626,13 @@
       <c r="D38">
         <v>14</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1631</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>6000</v>
@@ -1876,19 +1640,13 @@
       <c r="D39">
         <v>7</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1632</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>6000</v>
@@ -1896,19 +1654,13 @@
       <c r="D40">
         <v>15</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1633</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>6000</v>
@@ -1916,19 +1668,13 @@
       <c r="D41">
         <v>16</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1674</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>60000</v>
@@ -1936,19 +1682,13 @@
       <c r="D42">
         <v>133</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2168</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>10000</v>
@@ -1956,19 +1696,13 @@
       <c r="D43">
         <v>10</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2413</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44">
         <v>60000</v>
@@ -1976,19 +1710,13 @@
       <c r="D44">
         <v>38</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2414</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>180000</v>
@@ -1996,19 +1724,13 @@
       <c r="D45">
         <v>240</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2415</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>60000</v>
@@ -2016,19 +1738,13 @@
       <c r="D46">
         <v>28</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2416</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>60000</v>
@@ -2036,19 +1752,13 @@
       <c r="D47">
         <v>15</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2417</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48">
         <v>10000</v>
@@ -2056,19 +1766,13 @@
       <c r="D48">
         <v>22</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2418</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49">
         <v>10000</v>
@@ -2076,19 +1780,13 @@
       <c r="D49">
         <v>12</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2592</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50">
         <v>80000</v>
@@ -2096,19 +1794,13 @@
       <c r="D50">
         <v>155</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2593</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51">
         <v>8000</v>
@@ -2116,19 +1808,13 @@
       <c r="D51">
         <v>25</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2594</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52">
         <v>8000</v>
@@ -2136,19 +1822,13 @@
       <c r="D52">
         <v>11</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2595</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>8000</v>
@@ -2156,19 +1836,13 @@
       <c r="D53">
         <v>8</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2596</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>8000</v>
@@ -2176,19 +1850,13 @@
       <c r="D54">
         <v>9</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2597</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55">
         <v>8000</v>
@@ -2196,19 +1864,13 @@
       <c r="D55">
         <v>6</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2598</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>8000</v>
@@ -2216,19 +1878,13 @@
       <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2599</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57">
         <v>8000</v>
@@ -2236,19 +1892,13 @@
       <c r="D57">
         <v>20</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2600</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58">
         <v>8000</v>
@@ -2256,19 +1906,13 @@
       <c r="D58">
         <v>5</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2601</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59">
         <v>8000</v>
@@ -2276,19 +1920,13 @@
       <c r="D59">
         <v>17</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2602</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60">
         <v>8000</v>
@@ -2296,19 +1934,13 @@
       <c r="D60">
         <v>20</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2609</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61">
         <v>30000</v>
@@ -2316,19 +1948,13 @@
       <c r="D61">
         <v>29</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2749</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62">
         <v>10000</v>
@@ -2336,19 +1962,13 @@
       <c r="D62">
         <v>44</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2750</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63">
         <v>10000</v>
@@ -2356,19 +1976,13 @@
       <c r="D63">
         <v>33</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2752</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64">
         <v>259000</v>
@@ -2376,19 +1990,13 @@
       <c r="D64">
         <v>220</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2782</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>70000</v>
@@ -2396,19 +2004,13 @@
       <c r="D65">
         <v>20</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2793</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66">
         <v>70000</v>
@@ -2416,19 +2018,13 @@
       <c r="D66">
         <v>9</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2797</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67">
         <v>49000</v>
@@ -2436,19 +2032,13 @@
       <c r="D67">
         <v>143</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2809</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68">
         <v>70000</v>
@@ -2456,19 +2046,13 @@
       <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3018</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69">
         <v>70000</v>
@@ -2476,19 +2060,13 @@
       <c r="D69">
         <v>18</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3022</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70">
         <v>15000</v>
@@ -2496,19 +2074,13 @@
       <c r="D70">
         <v>14</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3055</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71">
         <v>49000</v>
@@ -2516,19 +2088,13 @@
       <c r="D71">
         <v>32</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3062</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72">
         <v>70000</v>
@@ -2536,19 +2102,13 @@
       <c r="D72">
         <v>7</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3076</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73">
         <v>49000</v>
@@ -2556,19 +2116,13 @@
       <c r="D73">
         <v>36</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3100</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74">
         <v>315000</v>
@@ -2576,19 +2130,13 @@
       <c r="D74">
         <v>59</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3109</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75">
         <v>15000</v>
@@ -2596,19 +2144,13 @@
       <c r="D75">
         <v>57</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3120</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76">
         <v>15000</v>
@@ -2616,19 +2158,13 @@
       <c r="D76">
         <v>66</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3126</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77">
         <v>40000</v>
@@ -2636,19 +2172,13 @@
       <c r="D77">
         <v>15</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3127</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78">
         <v>15000</v>
@@ -2656,19 +2186,13 @@
       <c r="D78">
         <v>12</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3128</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79">
         <v>30000</v>
@@ -2676,19 +2200,13 @@
       <c r="D79">
         <v>3</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3139</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2696,19 +2214,13 @@
       <c r="D80">
         <v>39</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3140</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2716,19 +2228,13 @@
       <c r="D81">
         <v>31</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3141</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2736,19 +2242,13 @@
       <c r="D82">
         <v>17</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3142</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2756,19 +2256,13 @@
       <c r="D83">
         <v>43</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3143</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2776,19 +2270,13 @@
       <c r="D84">
         <v>25</v>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3146</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85">
         <v>12000</v>
@@ -2796,19 +2284,13 @@
       <c r="D85">
         <v>9</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3147</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86">
         <v>12000</v>
@@ -2816,19 +2298,13 @@
       <c r="D86">
         <v>8</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3148</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87">
         <v>12000</v>
@@ -2836,19 +2312,13 @@
       <c r="D87">
         <v>8</v>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3149</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88">
         <v>12000</v>
@@ -2856,19 +2326,13 @@
       <c r="D88">
         <v>5</v>
       </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3150</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89">
         <v>12000</v>
@@ -2876,19 +2340,13 @@
       <c r="D89">
         <v>7</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3151</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90">
         <v>12000</v>
@@ -2896,19 +2354,13 @@
       <c r="D90">
         <v>17</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3152</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91">
         <v>12000</v>
@@ -2916,19 +2368,13 @@
       <c r="D91">
         <v>6</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3153</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92">
         <v>12000</v>
@@ -2936,19 +2382,13 @@
       <c r="D92">
         <v>35</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3154</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93">
         <v>12000</v>
@@ -2956,19 +2396,13 @@
       <c r="D93">
         <v>7</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3159</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94">
         <v>12000</v>
@@ -2976,19 +2410,13 @@
       <c r="D94">
         <v>68</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3160</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95">
         <v>12000</v>
@@ -2996,19 +2424,13 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3161</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96">
         <v>12000</v>
@@ -3016,19 +2438,13 @@
       <c r="D96">
         <v>7</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3162</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97">
         <v>12000</v>
@@ -3036,19 +2452,13 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3163</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98">
         <v>12000</v>
@@ -3056,19 +2466,13 @@
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3164</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99">
         <v>12000</v>
@@ -3076,19 +2480,13 @@
       <c r="D99">
         <v>6</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3165</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100">
         <v>12000</v>
@@ -3096,19 +2494,13 @@
       <c r="D100">
         <v>20</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3166</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101">
         <v>12000</v>
@@ -3116,19 +2508,13 @@
       <c r="D101">
         <v>12</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3167</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102">
         <v>12000</v>
@@ -3136,19 +2522,13 @@
       <c r="D102">
         <v>11</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3168</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103">
         <v>25000</v>
@@ -3156,19 +2536,13 @@
       <c r="D103">
         <v>25</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3179</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104">
         <v>30000</v>
@@ -3176,19 +2550,13 @@
       <c r="D104">
         <v>211</v>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3183</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105">
         <v>40000</v>
@@ -3196,19 +2564,13 @@
       <c r="D105">
         <v>148</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3225</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3216,19 +2578,13 @@
       <c r="D106">
         <v>17</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3226</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3236,19 +2592,13 @@
       <c r="D107">
         <v>24</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3227</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108">
         <v>10000</v>
@@ -3256,19 +2606,13 @@
       <c r="D108">
         <v>36</v>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3228</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109">
         <v>10000</v>
@@ -3276,19 +2620,13 @@
       <c r="D109">
         <v>18</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3229</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110">
         <v>10000</v>
@@ -3296,19 +2634,13 @@
       <c r="D110">
         <v>19</v>
       </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3354</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111">
         <v>50000</v>
@@ -3316,19 +2648,13 @@
       <c r="D111">
         <v>188</v>
       </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3459</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112">
         <v>50000</v>
@@ -3336,19 +2662,13 @@
       <c r="D112">
         <v>147</v>
       </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3537</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113">
         <v>12000</v>
@@ -3356,19 +2676,13 @@
       <c r="D113">
         <v>106</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3538</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114">
         <v>12000</v>
@@ -3376,19 +2690,13 @@
       <c r="D114">
         <v>22</v>
       </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3539</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115">
         <v>12000</v>
@@ -3396,19 +2704,13 @@
       <c r="D115">
         <v>14</v>
       </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3540</v>
       </c>
       <c r="B116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C116">
         <v>12000</v>
@@ -3416,19 +2718,13 @@
       <c r="D116">
         <v>5</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3541</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117">
         <v>12000</v>
@@ -3436,19 +2732,13 @@
       <c r="D117">
         <v>2</v>
       </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3542</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118">
         <v>12000</v>
@@ -3456,19 +2746,13 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3543</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119">
         <v>50000</v>
@@ -3476,19 +2760,13 @@
       <c r="D119">
         <v>64</v>
       </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3564</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C120">
         <v>50000</v>
@@ -3496,19 +2774,13 @@
       <c r="D120">
         <v>65</v>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3669</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C121">
         <v>50000</v>
@@ -3516,19 +2788,13 @@
       <c r="D121">
         <v>44</v>
       </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3691</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C122">
         <v>50000</v>
@@ -3536,19 +2802,13 @@
       <c r="D122">
         <v>44</v>
       </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3707</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123">
         <v>10000</v>
@@ -3556,19 +2816,13 @@
       <c r="D123">
         <v>10</v>
       </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3708</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124">
         <v>10000</v>
@@ -3576,19 +2830,13 @@
       <c r="D124">
         <v>7</v>
       </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3709</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C125">
         <v>10000</v>
@@ -3596,19 +2844,13 @@
       <c r="D125">
         <v>6</v>
       </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3710</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126">
         <v>10000</v>
@@ -3616,19 +2858,13 @@
       <c r="D126">
         <v>4</v>
       </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3711</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C127">
         <v>10000</v>
@@ -3636,19 +2872,13 @@
       <c r="D127">
         <v>3</v>
       </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3712</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C128">
         <v>10000</v>
@@ -3656,19 +2886,13 @@
       <c r="D128">
         <v>3</v>
       </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3739</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C129">
         <v>50000</v>
@@ -3676,19 +2900,13 @@
       <c r="D129">
         <v>43</v>
       </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3743</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C130">
         <v>50000</v>
@@ -3696,19 +2914,13 @@
       <c r="D130">
         <v>32</v>
       </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3749</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C131">
         <v>50000</v>
@@ -3716,19 +2928,13 @@
       <c r="D131">
         <v>35</v>
       </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3754</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C132">
         <v>50000</v>
@@ -3736,19 +2942,13 @@
       <c r="D132">
         <v>37</v>
       </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3770</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C133">
         <v>40000</v>
@@ -3756,19 +2956,13 @@
       <c r="D133">
         <v>7</v>
       </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3795</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C134">
         <v>470000</v>
@@ -3776,19 +2970,13 @@
       <c r="D134">
         <v>549</v>
       </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3796</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C135">
         <v>40000</v>
@@ -3796,19 +2984,13 @@
       <c r="D135">
         <v>12</v>
       </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3829</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C136">
         <v>156000</v>
@@ -3816,19 +2998,13 @@
       <c r="D136">
         <v>32</v>
       </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3839</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C137">
         <v>30000</v>
@@ -3836,19 +3012,13 @@
       <c r="D137">
         <v>7</v>
       </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3922</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C138">
         <v>165000</v>
@@ -3856,19 +3026,13 @@
       <c r="D138">
         <v>212</v>
       </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3938</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C139">
         <v>165000</v>
@@ -3876,19 +3040,13 @@
       <c r="D139">
         <v>193</v>
       </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3973</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C140">
         <v>39000</v>
@@ -3896,19 +3054,13 @@
       <c r="D140">
         <v>53</v>
       </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3977</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C141">
         <v>39000</v>
@@ -3916,19 +3068,13 @@
       <c r="D141">
         <v>51</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4014</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C142">
         <v>39000</v>
@@ -3936,19 +3082,13 @@
       <c r="D142">
         <v>105</v>
       </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4015</v>
       </c>
       <c r="B143" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C143">
         <v>19000</v>
@@ -3956,19 +3096,13 @@
       <c r="D143">
         <v>81</v>
       </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4016</v>
       </c>
       <c r="B144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C144">
         <v>19000</v>
@@ -3976,19 +3110,13 @@
       <c r="D144">
         <v>45</v>
       </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4060</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C145">
         <v>39000</v>
@@ -3996,19 +3124,13 @@
       <c r="D145">
         <v>151</v>
       </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4082</v>
       </c>
       <c r="B146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C146">
         <v>19000</v>
@@ -4016,19 +3138,13 @@
       <c r="D146">
         <v>32</v>
       </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4098</v>
       </c>
       <c r="B147" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C147">
         <v>19000</v>
@@ -4036,19 +3152,13 @@
       <c r="D147">
         <v>24</v>
       </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4121</v>
       </c>
       <c r="B148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C148">
         <v>434000</v>
@@ -4056,19 +3166,13 @@
       <c r="D148">
         <v>45</v>
       </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4134</v>
       </c>
       <c r="B149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C149">
         <v>100000</v>
@@ -4076,19 +3180,13 @@
       <c r="D149">
         <v>0</v>
       </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4165</v>
       </c>
       <c r="B150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C150">
         <v>10000</v>
@@ -4096,19 +3194,13 @@
       <c r="D150">
         <v>3</v>
       </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>4166</v>
       </c>
       <c r="B151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C151">
         <v>10000</v>
@@ -4116,19 +3208,13 @@
       <c r="D151">
         <v>3</v>
       </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4167</v>
       </c>
       <c r="B152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C152">
         <v>10000</v>
@@ -4136,19 +3222,13 @@
       <c r="D152">
         <v>3</v>
       </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4168</v>
       </c>
       <c r="B153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C153">
         <v>10000</v>
@@ -4156,19 +3236,13 @@
       <c r="D153">
         <v>3</v>
       </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4169</v>
       </c>
       <c r="B154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C154">
         <v>10000</v>
@@ -4176,19 +3250,13 @@
       <c r="D154">
         <v>4</v>
       </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4170</v>
       </c>
       <c r="B155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C155">
         <v>10000</v>
@@ -4196,19 +3264,13 @@
       <c r="D155">
         <v>4</v>
       </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>4171</v>
       </c>
       <c r="B156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C156">
         <v>10000</v>
@@ -4216,19 +3278,13 @@
       <c r="D156">
         <v>3</v>
       </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>4173</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C157">
         <v>72000</v>
@@ -4236,19 +3292,13 @@
       <c r="D157">
         <v>14</v>
       </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4178</v>
       </c>
       <c r="B158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C158">
         <v>560000</v>
@@ -4256,19 +3306,13 @@
       <c r="D158">
         <v>39</v>
       </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4182</v>
       </c>
       <c r="B159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C159">
         <v>50000</v>
@@ -4276,19 +3320,13 @@
       <c r="D159">
         <v>31</v>
       </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4183</v>
       </c>
       <c r="B160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C160">
         <v>15000</v>
@@ -4296,19 +3334,13 @@
       <c r="D160">
         <v>12</v>
       </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4184</v>
       </c>
       <c r="B161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C161">
         <v>15000</v>
@@ -4316,19 +3348,13 @@
       <c r="D161">
         <v>20</v>
       </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4185</v>
       </c>
       <c r="B162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C162">
         <v>50000</v>
@@ -4336,19 +3362,13 @@
       <c r="D162">
         <v>25</v>
       </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>4186</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163">
         <v>50000</v>
@@ -4356,19 +3376,13 @@
       <c r="D163">
         <v>35</v>
       </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>4187</v>
       </c>
       <c r="B164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C164">
         <v>50000</v>
@@ -4376,19 +3390,13 @@
       <c r="D164">
         <v>20</v>
       </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>4188</v>
       </c>
       <c r="B165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C165">
         <v>50000</v>
@@ -4396,19 +3404,13 @@
       <c r="D165">
         <v>25</v>
       </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4189</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C166">
         <v>15000</v>
@@ -4416,19 +3418,13 @@
       <c r="D166">
         <v>4</v>
       </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4190</v>
       </c>
       <c r="B167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C167">
         <v>6000</v>
@@ -4436,19 +3432,13 @@
       <c r="D167">
         <v>17</v>
       </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4191</v>
       </c>
       <c r="B168" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C168">
         <v>15000</v>
@@ -4456,19 +3446,13 @@
       <c r="D168">
         <v>8</v>
       </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4192</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C169">
         <v>50000</v>
@@ -4476,19 +3460,13 @@
       <c r="D169">
         <v>22</v>
       </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4193</v>
       </c>
       <c r="B170" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C170">
         <v>50000</v>
@@ -4496,19 +3474,13 @@
       <c r="D170">
         <v>57</v>
       </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4194</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C171">
         <v>6000</v>
@@ -4516,19 +3488,13 @@
       <c r="D171">
         <v>11</v>
       </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4195</v>
       </c>
       <c r="B172" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C172">
         <v>6000</v>
@@ -4536,19 +3502,13 @@
       <c r="D172">
         <v>25</v>
       </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4196</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C173">
         <v>6000</v>
@@ -4556,19 +3516,13 @@
       <c r="D173">
         <v>3</v>
       </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4240</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C174">
         <v>85000</v>
@@ -4576,19 +3530,13 @@
       <c r="D174">
         <v>190</v>
       </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4282</v>
       </c>
       <c r="B175" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C175">
         <v>150000</v>
@@ -4596,19 +3544,13 @@
       <c r="D175">
         <v>286</v>
       </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4475</v>
       </c>
       <c r="B176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C176">
         <v>114000</v>
@@ -4616,19 +3558,13 @@
       <c r="D176">
         <v>8</v>
       </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>4526</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C177">
         <v>40000</v>
@@ -4636,19 +3572,13 @@
       <c r="D177">
         <v>21</v>
       </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>4899</v>
       </c>
       <c r="B178" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C178">
         <v>270000</v>
@@ -4656,19 +3586,13 @@
       <c r="D178">
         <v>209</v>
       </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>4908</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C179">
         <v>99000</v>
@@ -4676,19 +3600,13 @@
       <c r="D179">
         <v>102</v>
       </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>4909</v>
       </c>
       <c r="B180" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C180">
         <v>99000</v>
@@ -4696,19 +3614,13 @@
       <c r="D180">
         <v>175</v>
       </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4958</v>
       </c>
       <c r="B181" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C181">
         <v>290000</v>
@@ -4716,19 +3628,13 @@
       <c r="D181">
         <v>32</v>
       </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>4959</v>
       </c>
       <c r="B182" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C182">
         <v>50000</v>
@@ -4736,19 +3642,13 @@
       <c r="D182">
         <v>12</v>
       </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>4960</v>
       </c>
       <c r="B183" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C183">
         <v>50000</v>
@@ -4756,19 +3656,13 @@
       <c r="D183">
         <v>1</v>
       </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>4961</v>
       </c>
       <c r="B184" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C184">
         <v>50000</v>
@@ -4776,19 +3670,13 @@
       <c r="D184">
         <v>5</v>
       </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4962</v>
       </c>
       <c r="B185" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C185">
         <v>50000</v>
@@ -4796,19 +3684,13 @@
       <c r="D185">
         <v>0</v>
       </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>4963</v>
       </c>
       <c r="B186" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C186">
         <v>50000</v>
@@ -4816,19 +3698,13 @@
       <c r="D186">
         <v>1</v>
       </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>4964</v>
       </c>
       <c r="B187" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C187">
         <v>50000</v>
@@ -4836,19 +3712,13 @@
       <c r="D187">
         <v>2</v>
       </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5007</v>
       </c>
       <c r="B188" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C188">
         <v>440000</v>
@@ -4856,19 +3726,13 @@
       <c r="D188">
         <v>284</v>
       </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>5109</v>
       </c>
       <c r="B189" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4876,19 +3740,13 @@
       <c r="D189">
         <v>342</v>
       </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>5497</v>
       </c>
       <c r="B190" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4896,19 +3754,13 @@
       <c r="D190">
         <v>0</v>
       </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>5498</v>
       </c>
       <c r="B191" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -4916,19 +3768,13 @@
       <c r="D191">
         <v>0</v>
       </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5499</v>
       </c>
       <c r="B192" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C192">
         <v>90000</v>
@@ -4936,19 +3782,13 @@
       <c r="D192">
         <v>0</v>
       </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>5501</v>
       </c>
       <c r="B193" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C193">
         <v>70000</v>
@@ -4956,19 +3796,13 @@
       <c r="D193">
         <v>0</v>
       </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>5645</v>
       </c>
       <c r="B194" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C194">
         <v>19000</v>
@@ -4976,19 +3810,13 @@
       <c r="D194">
         <v>5</v>
       </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>5814</v>
       </c>
       <c r="B195" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C195">
         <v>250000</v>
@@ -4996,19 +3824,13 @@
       <c r="D195">
         <v>85</v>
       </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>5816</v>
       </c>
       <c r="B196" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C196">
         <v>50000</v>
@@ -5016,19 +3838,13 @@
       <c r="D196">
         <v>54</v>
       </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5817</v>
       </c>
       <c r="B197" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C197">
         <v>50000</v>
@@ -5036,19 +3852,13 @@
       <c r="D197">
         <v>29</v>
       </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>6557</v>
       </c>
       <c r="B198" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C198">
         <v>500000</v>
@@ -5056,19 +3866,13 @@
       <c r="D198">
         <v>199</v>
       </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>7140</v>
       </c>
       <c r="B199" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C199">
         <v>159000</v>
@@ -5076,19 +3880,13 @@
       <c r="D199">
         <v>153</v>
       </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>7228</v>
       </c>
       <c r="B200" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C200">
         <v>10000</v>
@@ -5096,19 +3894,13 @@
       <c r="D200">
         <v>18</v>
       </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>7685</v>
       </c>
       <c r="B201" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C201">
         <v>39000</v>
@@ -5116,19 +3908,13 @@
       <c r="D201">
         <v>272</v>
       </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>7928</v>
       </c>
       <c r="B202" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202">
         <v>10000</v>
@@ -5136,19 +3922,13 @@
       <c r="D202">
         <v>18</v>
       </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-      <c r="F202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>7932</v>
       </c>
       <c r="B203" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C203">
         <v>25000</v>
@@ -5156,19 +3936,13 @@
       <c r="D203">
         <v>110</v>
       </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-      <c r="F203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>7934</v>
       </c>
       <c r="B204" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204">
         <v>10000</v>
@@ -5176,19 +3950,13 @@
       <c r="D204">
         <v>56</v>
       </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>7935</v>
       </c>
       <c r="B205" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C205">
         <v>25000</v>
@@ -5196,19 +3964,13 @@
       <c r="D205">
         <v>19</v>
       </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7936</v>
       </c>
       <c r="B206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C206">
         <v>10000</v>
@@ -5216,19 +3978,13 @@
       <c r="D206">
         <v>25</v>
       </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7937</v>
       </c>
       <c r="B207" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C207">
         <v>10000</v>
@@ -5236,19 +3992,13 @@
       <c r="D207">
         <v>12</v>
       </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7938</v>
       </c>
       <c r="B208" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C208">
         <v>10000</v>
@@ -5256,19 +4006,13 @@
       <c r="D208">
         <v>24</v>
       </c>
-      <c r="E208">
-        <v>0</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>7939</v>
       </c>
       <c r="B209" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C209">
         <v>25000</v>
@@ -5276,19 +4020,13 @@
       <c r="D209">
         <v>132</v>
       </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>7940</v>
       </c>
       <c r="B210" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C210">
         <v>10000</v>
@@ -5296,19 +4034,13 @@
       <c r="D210">
         <v>49</v>
       </c>
-      <c r="E210">
-        <v>0</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>7941</v>
       </c>
       <c r="B211" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C211">
         <v>25000</v>
@@ -5316,19 +4048,13 @@
       <c r="D211">
         <v>20</v>
       </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>7942</v>
       </c>
       <c r="B212" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C212">
         <v>25000</v>
@@ -5336,19 +4062,13 @@
       <c r="D212">
         <v>45</v>
       </c>
-      <c r="E212">
-        <v>0</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>7943</v>
       </c>
       <c r="B213" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C213">
         <v>25000</v>
@@ -5356,19 +4076,13 @@
       <c r="D213">
         <v>22</v>
       </c>
-      <c r="E213">
-        <v>0</v>
-      </c>
-      <c r="F213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>7949</v>
       </c>
       <c r="B214" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C214">
         <v>317000</v>
@@ -5376,19 +4090,13 @@
       <c r="D214">
         <v>76</v>
       </c>
-      <c r="E214">
-        <v>0</v>
-      </c>
-      <c r="F214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>7982</v>
       </c>
       <c r="B215" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C215">
         <v>198000</v>
@@ -5396,19 +4104,13 @@
       <c r="D215">
         <v>8</v>
       </c>
-      <c r="E215">
-        <v>0</v>
-      </c>
-      <c r="F215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>7983</v>
       </c>
       <c r="B216" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C216">
         <v>198000</v>
@@ -5416,19 +4118,13 @@
       <c r="D216">
         <v>28</v>
       </c>
-      <c r="E216">
-        <v>0</v>
-      </c>
-      <c r="F216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>8032</v>
       </c>
       <c r="B217" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -5436,19 +4132,13 @@
       <c r="D217">
         <v>32</v>
       </c>
-      <c r="E217">
-        <v>0</v>
-      </c>
-      <c r="F217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>8072</v>
       </c>
       <c r="B218" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C218">
         <v>30000</v>
@@ -5456,19 +4146,13 @@
       <c r="D218">
         <v>117</v>
       </c>
-      <c r="E218">
-        <v>0</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>8073</v>
       </c>
       <c r="B219" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C219">
         <v>30000</v>
@@ -5476,19 +4160,13 @@
       <c r="D219">
         <v>88</v>
       </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>8074</v>
       </c>
       <c r="B220" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C220">
         <v>30000</v>
@@ -5496,19 +4174,13 @@
       <c r="D220">
         <v>43</v>
       </c>
-      <c r="E220">
-        <v>0</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>8108</v>
       </c>
       <c r="B221" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C221">
         <v>58000</v>
@@ -5516,19 +4188,13 @@
       <c r="D221">
         <v>75</v>
       </c>
-      <c r="E221">
-        <v>0</v>
-      </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>8109</v>
       </c>
       <c r="B222" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C222">
         <v>79000</v>
@@ -5536,19 +4202,13 @@
       <c r="D222">
         <v>58</v>
       </c>
-      <c r="E222">
-        <v>0</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>8110</v>
       </c>
       <c r="B223" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C223">
         <v>49000</v>
@@ -5556,19 +4216,13 @@
       <c r="D223">
         <v>87</v>
       </c>
-      <c r="E223">
-        <v>0</v>
-      </c>
-      <c r="F223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>8279</v>
       </c>
       <c r="B224" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -5576,19 +4230,13 @@
       <c r="D224">
         <v>3318</v>
       </c>
-      <c r="E224">
-        <v>0</v>
-      </c>
-      <c r="F224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>8308</v>
       </c>
       <c r="B225" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C225">
         <v>169000</v>
@@ -5596,19 +4244,13 @@
       <c r="D225">
         <v>73</v>
       </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>8487</v>
       </c>
       <c r="B226" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C226">
         <v>6000</v>
@@ -5616,19 +4258,13 @@
       <c r="D226">
         <v>9</v>
       </c>
-      <c r="E226">
-        <v>0</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>8648</v>
       </c>
       <c r="B227" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C227">
         <v>139000</v>
@@ -5636,19 +4272,13 @@
       <c r="D227">
         <v>16</v>
       </c>
-      <c r="E227">
-        <v>0</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>8670</v>
       </c>
       <c r="B228" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C228">
         <v>199000</v>
@@ -5656,19 +4286,13 @@
       <c r="D228">
         <v>16</v>
       </c>
-      <c r="E228">
-        <v>0</v>
-      </c>
-      <c r="F228">
-        <v>99500</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>8714</v>
       </c>
       <c r="B229" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -5676,19 +4300,13 @@
       <c r="D229">
         <v>850</v>
       </c>
-      <c r="E229">
-        <v>0</v>
-      </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>8877</v>
       </c>
       <c r="B230" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C230">
         <v>99000</v>
@@ -5696,19 +4314,13 @@
       <c r="D230">
         <v>5</v>
       </c>
-      <c r="E230">
-        <v>0</v>
-      </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>8878</v>
       </c>
       <c r="B231" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C231">
         <v>149000</v>
@@ -5716,19 +4328,13 @@
       <c r="D231">
         <v>13</v>
       </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>9261</v>
       </c>
       <c r="B232" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C232">
         <v>99000</v>
@@ -5736,19 +4342,13 @@
       <c r="D232">
         <v>2</v>
       </c>
-      <c r="E232">
-        <v>0</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>9418</v>
       </c>
       <c r="B233" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C233">
         <v>19000</v>
@@ -5756,31 +4356,19 @@
       <c r="D233">
         <v>1</v>
       </c>
-      <c r="E233">
-        <v>0</v>
-      </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>9419</v>
       </c>
       <c r="B234" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C234">
         <v>0</v>
       </c>
       <c r="D234">
         <v>212</v>
-      </c>
-      <c r="E234">
-        <v>0</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/لیست کل دوره های آموزشی خروجی آقای کریمی 14030225.xlsx
+++ b/لیست کل دوره های آموزشی خروجی آقای کریمی 14030225.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FE7B82-7313-4225-9793-6A130E854E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DFDDC1-E7FA-4B2C-ADEE-0E0B562235A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="233">
   <si>
     <t>idps</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>فروش</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -795,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,12 +806,94 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -948,14 +1033,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CB61C1D-6E38-4E48-8C36-B050105C7C9E}" name="pproducts_6___2" displayName="pproducts_6___2" ref="A1:E234" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CB61C1D-6E38-4E48-8C36-B050105C7C9E}" name="pproducts_6___2" displayName="pproducts_6___2" ref="A1:E235" tableType="queryTable" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:E234" xr:uid="{9CB61C1D-6E38-4E48-8C36-B050105C7C9E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{04BE6AF2-30BC-4D87-8726-C1183E64F3D4}" uniqueName="1" name="idps" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{718E5251-49F6-441C-AB0E-1325629B9081}" uniqueName="2" name="اسم مستند" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{3802F8FC-4479-4198-B1E3-D81456AFF50F}" uniqueName="3" name="قیمت روی سایت" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{6CDC06DA-0F89-4F96-AA54-474DC873FABF}" uniqueName="4" name="تعداد دانلود" queryTableFieldId="4" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{56F4BE66-AD1B-41EE-9A9F-7A65A22486FC}" uniqueName="5" name="فروش" queryTableFieldId="7" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{04BE6AF2-30BC-4D87-8726-C1183E64F3D4}" uniqueName="1" name="idps" totalsRowLabel="Total" queryTableFieldId="1" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{718E5251-49F6-441C-AB0E-1325629B9081}" uniqueName="2" name="اسم مستند" queryTableFieldId="2" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3802F8FC-4479-4198-B1E3-D81456AFF50F}" uniqueName="3" name="قیمت روی سایت" queryTableFieldId="3" dataDxfId="7" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{6CDC06DA-0F89-4F96-AA54-474DC873FABF}" uniqueName="4" name="تعداد دانلود" totalsRowFunction="sum" queryTableFieldId="4" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{56F4BE66-AD1B-41EE-9A9F-7A65A22486FC}" uniqueName="5" name="فروش" totalsRowFunction="sum" queryTableFieldId="7" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1224,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD59ECBE-FA49-463C-8265-F5B5812A2070}">
-  <dimension ref="A1:E234"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="E234" sqref="E234"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="E235" sqref="E235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1321,7 @@
     <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -5303,6 +5388,19 @@
       </c>
       <c r="E234" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D235" s="1">
+        <f>SUBTOTAL(109,pproducts_6___2[تعداد دانلود])</f>
+        <v>17133</v>
+      </c>
+      <c r="E235" s="3">
+        <f>SUBTOTAL(109,pproducts_6___2[فروش])</f>
+        <v>191654500</v>
       </c>
     </row>
   </sheetData>
